--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3037.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3037.xlsx
@@ -351,13 +351,13 @@
         <v>1.126664633408683</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
         <v>1.168501898006803</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3037.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3037.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.126664633408683</v>
+        <v>0.57920241355896</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>2.263180494308472</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>6.248862266540527</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.579378008842468</v>
       </c>
       <c r="E1">
-        <v>1.168501898006803</v>
+        <v>0.9066450595855713</v>
       </c>
     </row>
   </sheetData>
